--- a/Распределение.xlsx
+++ b/Распределение.xlsx
@@ -6,39 +6,51 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Schedule" r:id="rId3" sheetId="1"/>
+    <sheet name="Общая информация" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+  <si>
+    <t>Название группы</t>
+  </si>
   <si>
     <t>Название предмета</t>
   </si>
   <si>
-    <t>Название группы</t>
-  </si>
-  <si>
-    <t>ФИО преп</t>
-  </si>
-  <si>
-    <t>Часы</t>
+    <t>Язык обучения</t>
+  </si>
+  <si>
+    <t>Кол-во студентов</t>
+  </si>
+  <si>
+    <t>Лек/Сем/Лаб</t>
+  </si>
+  <si>
+    <t>СРСП</t>
+  </si>
+  <si>
+    <t>Всего часов</t>
+  </si>
+  <si>
+    <t>Инф16-3</t>
   </si>
   <si>
     <t>Математический анализ</t>
   </si>
   <si>
-    <t>Инф16-3</t>
-  </si>
-  <si>
-    <t>Мырзакулов И.О</t>
+    <t>Русский/казахский</t>
+  </si>
+  <si>
+    <t>2/1/0</t>
   </si>
   <si>
     <t>ис 16-2</t>
   </si>
   <si>
-    <t>Иванов Иван Иванович</t>
+    <t>1/1/1</t>
   </si>
   <si>
     <t>Иностранные языки</t>
@@ -47,31 +59,31 @@
     <t>История Казахстана</t>
   </si>
   <si>
-    <t>Абдиахметова З.М</t>
+    <t>Инф-19-02</t>
   </si>
   <si>
     <t>Численные методы</t>
   </si>
   <si>
-    <t>Инф-19-02</t>
-  </si>
-  <si>
-    <t>Кайырбекова Алия Саматовна</t>
+    <t>1/2/0</t>
+  </si>
+  <si>
+    <t>АиУ 18-2</t>
   </si>
   <si>
     <t>Языки программирования</t>
   </si>
   <si>
-    <t>АиУ 18-2</t>
-  </si>
-  <si>
-    <t>Садыкова Г</t>
-  </si>
-  <si>
     <t>Python</t>
   </si>
   <si>
-    <t>Кабдрахова С.</t>
+    <t>2/1/1</t>
+  </si>
+  <si>
+    <t>2/0/1</t>
+  </si>
+  <si>
+    <t>1/0/1</t>
   </si>
 </sst>
 </file>
@@ -89,9 +101,9 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="14.0"/>
+      <sz val="12.0"/>
       <b val="true"/>
-      <color indexed="10"/>
+      <color indexed="8"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,16 +135,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.7890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.38671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="29.3359375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.1875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.7890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.6171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.2109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="15.27734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.4765625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.2265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -148,131 +163,267 @@
       <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>75.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>75.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>75.0</v>
+      <c r="F5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>45.0</v>
+        <v>78.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="n">
+        <v>31.200000000000003</v>
+      </c>
+      <c r="G6" t="n">
+        <v>76.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>31.200000000000003</v>
+      </c>
+      <c r="G7" t="n">
+        <v>91.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
-        <v>75.0</v>
+      <c r="F8" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>53.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>90.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="n">
-        <v>75.0</v>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>55.0</v>
       </c>
     </row>
   </sheetData>
